--- a/Lacin_summary_101119_recover_old_try5.xlsx
+++ b/Lacin_summary_101119_recover_old_try5.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Owner\Documents\MATLAB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{132FF4BC-422E-4182-BC91-9E16F14098A3}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43EFE4B5-E53C-474F-A3E8-B3D23358B48F}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2304" yWindow="2304" windowWidth="17280" windowHeight="8964" xr2:uid="{211CD73D-1D82-476B-A6B1-5AB747E7E315}"/>
   </bookViews>
